--- a/python-master/python-master/datas/test.xlsx
+++ b/python-master/python-master/datas/test.xlsx
@@ -8951,7 +8951,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103522149.60","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"104522310.18","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103522149.60","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"104522310.18","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103522099.49","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"104522260.07","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103022099.49","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"104022260.07","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103022009.49","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"104022170.07","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103022009.49","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"104022170.07","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103021959.38","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"104022119.96","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"102521959.38","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":2294,"regname":"huahua","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13670287382","leaveamount":"103522119.96","type":"1","regtime":"2019-05-18 17:00:23.0"},"msg":"取现成功"}</t>
         </is>
       </c>
       <c r="H27" s="0" t="inlineStr">
